--- a/docs/excel/DateEvent.xlsx
+++ b/docs/excel/DateEvent.xlsx
@@ -739,7 +739,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>26</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>27</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>28</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <v>1005</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>27</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>2001</v>
+        <v>201</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>26</v>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>2002</v>
+        <v>202</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>27</v>
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>2003</v>
+        <v>203</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>28</v>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>2004</v>
+        <v>204</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>26</v>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>2005</v>
+        <v>205</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>27</v>
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6">
-        <v>3001</v>
+        <v>301</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>26</v>
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>3002</v>
+        <v>302</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>27</v>
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>3003</v>
+        <v>303</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>28</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>3004</v>
+        <v>304</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>3005</v>
+        <v>305</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>27</v>

--- a/docs/excel/DateEvent.xlsx
+++ b/docs/excel/DateEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -104,18 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Palace/image_time01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_time02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Palace/image_time03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清晨</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,6 +181,66 @@
   </si>
   <si>
     <t>约会的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Palace/305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +787,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,16 +804,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -822,10 +870,10 @@
         <v>101</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -839,10 +887,10 @@
         <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -856,10 +904,10 @@
         <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -873,10 +921,10 @@
         <v>104</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -890,10 +938,10 @@
         <v>105</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -907,10 +955,10 @@
         <v>201</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -924,10 +972,10 @@
         <v>202</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -941,10 +989,10 @@
         <v>203</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -958,10 +1006,10 @@
         <v>204</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -975,10 +1023,10 @@
         <v>205</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -992,10 +1040,10 @@
         <v>301</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1009,10 +1057,10 @@
         <v>302</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1026,10 +1074,10 @@
         <v>303</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1043,10 +1091,10 @@
         <v>304</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1060,10 +1108,10 @@
         <v>305</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
